--- a/data_craw/quarter/balance_sheet_quarter/nvb.xlsx
+++ b/data_craw/quarter/balance_sheet_quarter/nvb.xlsx
@@ -441,82 +441,82 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>2019_q3</t>
+          <t>2020_q3</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2019_q4</t>
+          <t>2020_q4</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>2020_q1</t>
+          <t>2021_q1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>2020_q2</t>
+          <t>2021_q2</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>2020_q3</t>
+          <t>2021_q3</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>2020_q4</t>
+          <t>2021_q4</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>2021_q1</t>
+          <t>2022_q1</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>2021_q2</t>
+          <t>2022_q2</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>2021_q3</t>
+          <t>2022_q3</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>2021_q4</t>
+          <t>2022_q4</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>2022_q1</t>
+          <t>2023_q1</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>2022_q2</t>
+          <t>2023_q2</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>2022_q3</t>
+          <t>2023_q3</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2022_q4</t>
+          <t>2023_q4</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>2023_q1</t>
+          <t>2024_q1</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>2023_q2</t>
+          <t>2024_q2</t>
         </is>
       </c>
     </row>
@@ -573,51 +573,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>324119000000</v>
+        <v>332569000000</v>
       </c>
       <c r="C4" t="n">
-        <v>231724000000</v>
+        <v>2987561000000</v>
       </c>
       <c r="D4" t="n">
-        <v>260357000000</v>
+        <v>325090000000</v>
       </c>
       <c r="E4" t="n">
-        <v>332318000000</v>
+        <v>415929000000</v>
       </c>
       <c r="F4" t="n">
-        <v>332569000000</v>
+        <v>312960000000</v>
       </c>
       <c r="G4" t="n">
-        <v>2987561000000</v>
+        <v>242435000000</v>
       </c>
       <c r="H4" t="n">
-        <v>325090000000</v>
+        <v>302976000000</v>
       </c>
       <c r="I4" t="n">
-        <v>415929000000</v>
-      </c>
-      <c r="J4" t="n">
-        <v>312960000000</v>
-      </c>
+        <v>285569000000</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>242435000000</v>
+        <v>384031000000</v>
       </c>
       <c r="L4" t="n">
-        <v>302976000000</v>
+        <v>273934000000</v>
       </c>
       <c r="M4" t="n">
-        <v>285569000000</v>
+        <v>267882000000</v>
       </c>
       <c r="N4" t="inlineStr"/>
-      <c r="O4" t="n">
-        <v>384031000000</v>
-      </c>
-      <c r="P4" t="n">
-        <v>273934000000</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>267882000000</v>
-      </c>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -672,51 +664,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2007989000000</v>
+        <v>355856000000</v>
       </c>
       <c r="C7" t="n">
-        <v>494362000000</v>
+        <v>1550785000000</v>
       </c>
       <c r="D7" t="n">
-        <v>692432000000</v>
+        <v>702575000000</v>
       </c>
       <c r="E7" t="n">
-        <v>674115000000</v>
+        <v>395800000000</v>
       </c>
       <c r="F7" t="n">
-        <v>355856000000</v>
+        <v>584122000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1550785000000</v>
+        <v>1966518000000</v>
       </c>
       <c r="H7" t="n">
-        <v>702575000000</v>
+        <v>1465707000000</v>
       </c>
       <c r="I7" t="n">
-        <v>395800000000</v>
-      </c>
-      <c r="J7" t="n">
-        <v>584122000000</v>
-      </c>
+        <v>1196428000000</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>1966518000000</v>
+        <v>3749729000000</v>
       </c>
       <c r="L7" t="n">
-        <v>1465707000000</v>
+        <v>1158366000000</v>
       </c>
       <c r="M7" t="n">
-        <v>1196428000000</v>
+        <v>1394092000000</v>
       </c>
       <c r="N7" t="inlineStr"/>
-      <c r="O7" t="n">
-        <v>3749729000000</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1158366000000</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1394092000000</v>
-      </c>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -794,51 +778,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3752772000000</v>
+        <v>4836841000000</v>
       </c>
       <c r="C11" t="n">
-        <v>15274646000000</v>
+        <v>12114277000000</v>
       </c>
       <c r="D11" t="n">
-        <v>4276174000000</v>
+        <v>4731054000000</v>
       </c>
       <c r="E11" t="n">
-        <v>3477631000000</v>
+        <v>9478539000000</v>
       </c>
       <c r="F11" t="n">
-        <v>4836841000000</v>
+        <v>8073199000000</v>
       </c>
       <c r="G11" t="n">
-        <v>12114277000000</v>
+        <v>3201164000000</v>
       </c>
       <c r="H11" t="n">
-        <v>4731054000000</v>
+        <v>5694398000000</v>
       </c>
       <c r="I11" t="n">
-        <v>9478539000000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>8073199000000</v>
-      </c>
+        <v>6157867000000</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>3201164000000</v>
+        <v>11658654000000</v>
       </c>
       <c r="L11" t="n">
-        <v>5694398000000</v>
+        <v>6279717000000</v>
       </c>
       <c r="M11" t="n">
-        <v>6157867000000</v>
+        <v>6911342000000</v>
       </c>
       <c r="N11" t="inlineStr"/>
-      <c r="O11" t="n">
-        <v>11658654000000</v>
-      </c>
-      <c r="P11" t="n">
-        <v>6279717000000</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6911342000000</v>
-      </c>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -847,51 +823,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3722772000000</v>
+        <v>4836841000000</v>
       </c>
       <c r="C12" t="n">
-        <v>14390438000000</v>
+        <v>12014277000000</v>
       </c>
       <c r="D12" t="n">
-        <v>4226174000000</v>
+        <v>4731054000000</v>
       </c>
       <c r="E12" t="n">
-        <v>3427631000000</v>
+        <v>9478539000000</v>
       </c>
       <c r="F12" t="n">
-        <v>4836841000000</v>
+        <v>7625031000000</v>
       </c>
       <c r="G12" t="n">
-        <v>12014277000000</v>
+        <v>3064610000000</v>
       </c>
       <c r="H12" t="n">
-        <v>4731054000000</v>
+        <v>5557844000000</v>
       </c>
       <c r="I12" t="n">
-        <v>9478539000000</v>
-      </c>
-      <c r="J12" t="n">
-        <v>7625031000000</v>
-      </c>
+        <v>6157867000000</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>3064610000000</v>
+        <v>11658654000000</v>
       </c>
       <c r="L12" t="n">
-        <v>5557844000000</v>
+        <v>6279717000000</v>
       </c>
       <c r="M12" t="n">
-        <v>6157867000000</v>
+        <v>6911342000000</v>
       </c>
       <c r="N12" t="inlineStr"/>
-      <c r="O12" t="n">
-        <v>11658654000000</v>
-      </c>
-      <c r="P12" t="n">
-        <v>6279717000000</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6911342000000</v>
-      </c>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -899,33 +867,25 @@
           <t>2. Trả trước cho người bán ngắn hạn</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>30000000000</v>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>884208000000</v>
-      </c>
-      <c r="D13" t="n">
-        <v>50000000000</v>
-      </c>
-      <c r="E13" t="n">
-        <v>50000000000</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>100000000000</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>448168000000</v>
+      </c>
       <c r="G13" t="n">
-        <v>100000000000</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
+        <v>136554000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>136554000000</v>
+      </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>448168000000</v>
-      </c>
-      <c r="K13" t="n">
-        <v>136554000000</v>
-      </c>
-      <c r="L13" t="n">
-        <v>136554000000</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1076,14 +1036,10 @@
           <t>IV. Hàng tồn kho</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>-25000000</v>
-      </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>13971701000000</v>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1126,9 +1082,7 @@
           <t>2. Dự phòng giảm giá hàng tồn kho</t>
         </is>
       </c>
-      <c r="B22" t="n">
-        <v>-25000000</v>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
@@ -1152,45 +1106,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>34487000000</v>
+        <v>30635000000</v>
       </c>
       <c r="C23" t="n">
-        <v>43925000000</v>
+        <v>38573000000</v>
       </c>
       <c r="D23" t="n">
-        <v>28205000000</v>
+        <v>40828000000</v>
       </c>
       <c r="E23" t="n">
-        <v>37720000000</v>
+        <v>50996000000</v>
       </c>
       <c r="F23" t="n">
-        <v>30635000000</v>
-      </c>
-      <c r="G23" t="n">
-        <v>38573000000</v>
-      </c>
-      <c r="H23" t="n">
-        <v>40828000000</v>
-      </c>
-      <c r="I23" t="n">
-        <v>50996000000</v>
-      </c>
-      <c r="J23" t="n">
         <v>67149000000</v>
       </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>223373000000</v>
+      </c>
+      <c r="L23" t="n">
+        <v>223808000000</v>
+      </c>
+      <c r="M23" t="n">
+        <v>111705000000</v>
+      </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="n">
-        <v>223373000000</v>
-      </c>
-      <c r="P23" t="n">
-        <v>223808000000</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>111705000000</v>
-      </c>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1337,7 +1283,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>669647000000</v>
+        <v>654682000000</v>
       </c>
       <c r="C30" t="n">
         <v>654682000000</v>
@@ -1360,9 +1306,7 @@
       <c r="I30" t="n">
         <v>654682000000</v>
       </c>
-      <c r="J30" t="n">
-        <v>654682000000</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>654682000000</v>
       </c>
@@ -1373,15 +1317,9 @@
         <v>654682000000</v>
       </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="n">
-        <v>654682000000</v>
-      </c>
-      <c r="P30" t="n">
-        <v>654682000000</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>654682000000</v>
-      </c>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1435,15 +1373,13 @@
           <t>3. Vốn kinh doanh ở đơn vị trực thuộc</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr"/>
+      <c r="B33" t="n">
+        <v>200000000000</v>
+      </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="n">
-        <v>719600000000</v>
-      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>200000000000</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
@@ -1468,7 +1404,9 @@
       <c r="C34" t="n">
         <v>719600000000</v>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>719600000000</v>
+      </c>
       <c r="E34" t="n">
         <v>719600000000</v>
       </c>
@@ -1484,9 +1422,7 @@
       <c r="I34" t="n">
         <v>719600000000</v>
       </c>
-      <c r="J34" t="n">
-        <v>719600000000</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>719600000000</v>
       </c>
@@ -1497,15 +1433,9 @@
         <v>719600000000</v>
       </c>
       <c r="N34" t="inlineStr"/>
-      <c r="O34" t="n">
-        <v>719600000000</v>
-      </c>
-      <c r="P34" t="n">
-        <v>719600000000</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>719600000000</v>
-      </c>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1560,7 +1490,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-49953000000</v>
+        <v>-64918000000</v>
       </c>
       <c r="C37" t="n">
         <v>-64918000000</v>
@@ -1583,9 +1513,7 @@
       <c r="I37" t="n">
         <v>-64918000000</v>
       </c>
-      <c r="J37" t="n">
-        <v>-64918000000</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>-64918000000</v>
       </c>
@@ -1596,15 +1524,9 @@
         <v>-64918000000</v>
       </c>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="n">
-        <v>-64918000000</v>
-      </c>
-      <c r="P37" t="n">
-        <v>-64918000000</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>-64918000000</v>
-      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1613,51 +1535,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>593147000000</v>
+        <v>573260000000</v>
       </c>
       <c r="C38" t="n">
-        <v>589531000000</v>
+        <v>563519000000</v>
       </c>
       <c r="D38" t="n">
-        <v>582002000000</v>
+        <v>557240000000</v>
       </c>
       <c r="E38" t="n">
-        <v>573801000000</v>
+        <v>554433000000</v>
       </c>
       <c r="F38" t="n">
-        <v>573260000000</v>
+        <v>704021000000</v>
       </c>
       <c r="G38" t="n">
-        <v>563519000000</v>
+        <v>708033000000</v>
       </c>
       <c r="H38" t="n">
-        <v>557240000000</v>
+        <v>705455000000</v>
       </c>
       <c r="I38" t="n">
-        <v>554433000000</v>
-      </c>
-      <c r="J38" t="n">
-        <v>704021000000</v>
-      </c>
+        <v>696734000000</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>708033000000</v>
+        <v>743115000000</v>
       </c>
       <c r="L38" t="n">
-        <v>705455000000</v>
+        <v>750247000000</v>
       </c>
       <c r="M38" t="n">
-        <v>696734000000</v>
+        <v>750068000000</v>
       </c>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="n">
-        <v>743115000000</v>
-      </c>
-      <c r="P38" t="n">
-        <v>750247000000</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>750068000000</v>
-      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1666,51 +1580,43 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>151380000000</v>
+        <v>137078000000</v>
       </c>
       <c r="C39" t="n">
-        <v>151531000000</v>
+        <v>130908000000</v>
       </c>
       <c r="D39" t="n">
-        <v>146280000000</v>
+        <v>125747000000</v>
       </c>
       <c r="E39" t="n">
-        <v>142725000000</v>
+        <v>126663000000</v>
       </c>
       <c r="F39" t="n">
-        <v>137078000000</v>
+        <v>123211000000</v>
       </c>
       <c r="G39" t="n">
-        <v>130908000000</v>
+        <v>128240000000</v>
       </c>
       <c r="H39" t="n">
-        <v>125747000000</v>
+        <v>129316000000</v>
       </c>
       <c r="I39" t="n">
-        <v>126663000000</v>
-      </c>
-      <c r="J39" t="n">
-        <v>123211000000</v>
-      </c>
+        <v>124202000000</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>128240000000</v>
+        <v>164854000000</v>
       </c>
       <c r="L39" t="n">
-        <v>129316000000</v>
+        <v>166335000000</v>
       </c>
       <c r="M39" t="n">
-        <v>124202000000</v>
+        <v>163967000000</v>
       </c>
       <c r="N39" t="inlineStr"/>
-      <c r="O39" t="n">
-        <v>164854000000</v>
-      </c>
-      <c r="P39" t="n">
-        <v>166335000000</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>163967000000</v>
-      </c>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1719,51 +1625,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>296643000000</v>
+        <v>307985000000</v>
       </c>
       <c r="C40" t="n">
-        <v>303238000000</v>
+        <v>305780000000</v>
       </c>
       <c r="D40" t="n">
-        <v>303569000000</v>
+        <v>306902000000</v>
       </c>
       <c r="E40" t="n">
-        <v>307971000000</v>
+        <v>313329000000</v>
       </c>
       <c r="F40" t="n">
-        <v>307985000000</v>
+        <v>315254000000</v>
       </c>
       <c r="G40" t="n">
-        <v>305780000000</v>
+        <v>323468000000</v>
       </c>
       <c r="H40" t="n">
-        <v>306902000000</v>
+        <v>330083000000</v>
       </c>
       <c r="I40" t="n">
-        <v>313329000000</v>
-      </c>
-      <c r="J40" t="n">
-        <v>315254000000</v>
-      </c>
+        <v>330226000000</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>323468000000</v>
+        <v>382055000000</v>
       </c>
       <c r="L40" t="n">
-        <v>330083000000</v>
+        <v>390658000000</v>
       </c>
       <c r="M40" t="n">
-        <v>330226000000</v>
+        <v>395445000000</v>
       </c>
       <c r="N40" t="inlineStr"/>
-      <c r="O40" t="n">
-        <v>382055000000</v>
-      </c>
-      <c r="P40" t="n">
-        <v>390658000000</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>395445000000</v>
-      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1772,51 +1670,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-145263000000</v>
+        <v>-170907000000</v>
       </c>
       <c r="C41" t="n">
-        <v>-151707000000</v>
+        <v>-174872000000</v>
       </c>
       <c r="D41" t="n">
-        <v>-157289000000</v>
+        <v>-181155000000</v>
       </c>
       <c r="E41" t="n">
-        <v>-165246000000</v>
+        <v>-186666000000</v>
       </c>
       <c r="F41" t="n">
-        <v>-170907000000</v>
+        <v>-192043000000</v>
       </c>
       <c r="G41" t="n">
-        <v>-174872000000</v>
+        <v>-195228000000</v>
       </c>
       <c r="H41" t="n">
-        <v>-181155000000</v>
+        <v>-200767000000</v>
       </c>
       <c r="I41" t="n">
-        <v>-186666000000</v>
-      </c>
-      <c r="J41" t="n">
-        <v>-192043000000</v>
-      </c>
+        <v>-206024000000</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>-195228000000</v>
+        <v>-217201000000</v>
       </c>
       <c r="L41" t="n">
-        <v>-200767000000</v>
+        <v>-224323000000</v>
       </c>
       <c r="M41" t="n">
-        <v>-206024000000</v>
+        <v>-231478000000</v>
       </c>
       <c r="N41" t="inlineStr"/>
-      <c r="O41" t="n">
-        <v>-217201000000</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-224323000000</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-231478000000</v>
-      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1894,51 +1784,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>441767000000</v>
+        <v>436182000000</v>
       </c>
       <c r="C45" t="n">
-        <v>438000000000</v>
+        <v>432611000000</v>
       </c>
       <c r="D45" t="n">
-        <v>435722000000</v>
+        <v>431493000000</v>
       </c>
       <c r="E45" t="n">
-        <v>431076000000</v>
+        <v>427770000000</v>
       </c>
       <c r="F45" t="n">
-        <v>436182000000</v>
+        <v>580810000000</v>
       </c>
       <c r="G45" t="n">
-        <v>432611000000</v>
+        <v>579793000000</v>
       </c>
       <c r="H45" t="n">
-        <v>431493000000</v>
+        <v>576139000000</v>
       </c>
       <c r="I45" t="n">
-        <v>427770000000</v>
-      </c>
-      <c r="J45" t="n">
-        <v>580810000000</v>
-      </c>
+        <v>572532000000</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>579793000000</v>
+        <v>578261000000</v>
       </c>
       <c r="L45" t="n">
-        <v>576139000000</v>
+        <v>583912000000</v>
       </c>
       <c r="M45" t="n">
-        <v>572532000000</v>
+        <v>586101000000</v>
       </c>
       <c r="N45" t="inlineStr"/>
-      <c r="O45" t="n">
-        <v>578261000000</v>
-      </c>
-      <c r="P45" t="n">
-        <v>583912000000</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>586101000000</v>
-      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1947,51 +1829,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495224000000</v>
+        <v>504205000000</v>
       </c>
       <c r="C46" t="n">
-        <v>495224000000</v>
+        <v>504155000000</v>
       </c>
       <c r="D46" t="n">
-        <v>496623000000</v>
+        <v>506737000000</v>
       </c>
       <c r="E46" t="n">
-        <v>495439000000</v>
+        <v>506747000000</v>
       </c>
       <c r="F46" t="n">
-        <v>504205000000</v>
+        <v>663351000000</v>
       </c>
       <c r="G46" t="n">
-        <v>504155000000</v>
+        <v>665904000000</v>
       </c>
       <c r="H46" t="n">
-        <v>506737000000</v>
+        <v>665934000000</v>
       </c>
       <c r="I46" t="n">
-        <v>506747000000</v>
-      </c>
-      <c r="J46" t="n">
-        <v>663351000000</v>
-      </c>
+        <v>665933000000</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>665904000000</v>
+        <v>678926000000</v>
       </c>
       <c r="L46" t="n">
-        <v>665934000000</v>
+        <v>688700000000</v>
       </c>
       <c r="M46" t="n">
-        <v>665933000000</v>
+        <v>695462000000</v>
       </c>
       <c r="N46" t="inlineStr"/>
-      <c r="O46" t="n">
-        <v>678926000000</v>
-      </c>
-      <c r="P46" t="n">
-        <v>688700000000</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>695462000000</v>
-      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2000,51 +1874,43 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-53457000000</v>
+        <v>-68023000000</v>
       </c>
       <c r="C47" t="n">
-        <v>-57224000000</v>
+        <v>-71544000000</v>
       </c>
       <c r="D47" t="n">
-        <v>-60901000000</v>
+        <v>-75244000000</v>
       </c>
       <c r="E47" t="n">
-        <v>-64363000000</v>
+        <v>-78977000000</v>
       </c>
       <c r="F47" t="n">
-        <v>-68023000000</v>
+        <v>-82541000000</v>
       </c>
       <c r="G47" t="n">
-        <v>-71544000000</v>
+        <v>-86111000000</v>
       </c>
       <c r="H47" t="n">
-        <v>-75244000000</v>
+        <v>-89795000000</v>
       </c>
       <c r="I47" t="n">
-        <v>-78977000000</v>
-      </c>
-      <c r="J47" t="n">
-        <v>-82541000000</v>
-      </c>
+        <v>-93401000000</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>-86111000000</v>
+        <v>-100665000000</v>
       </c>
       <c r="L47" t="n">
-        <v>-89795000000</v>
+        <v>-104788000000</v>
       </c>
       <c r="M47" t="n">
-        <v>-93401000000</v>
+        <v>-109361000000</v>
       </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="n">
-        <v>-100665000000</v>
-      </c>
-      <c r="P47" t="n">
-        <v>-104788000000</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>-109361000000</v>
-      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2191,51 +2057,43 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>12651512000000</v>
+        <v>13936508000000</v>
       </c>
       <c r="C54" t="n">
-        <v>12426207000000</v>
+        <v>21085950000000</v>
       </c>
       <c r="D54" t="n">
-        <v>11905038000000</v>
+        <v>20563980000000</v>
       </c>
       <c r="E54" t="n">
-        <v>13268282000000</v>
+        <v>19024035000000</v>
       </c>
       <c r="F54" t="n">
-        <v>13936508000000</v>
+        <v>18564497000000</v>
       </c>
       <c r="G54" t="n">
-        <v>21085950000000</v>
+        <v>15979511000000</v>
       </c>
       <c r="H54" t="n">
-        <v>20563980000000</v>
+        <v>15609658000000</v>
       </c>
       <c r="I54" t="n">
-        <v>19024035000000</v>
-      </c>
-      <c r="J54" t="n">
-        <v>18564497000000</v>
-      </c>
+        <v>14617266000000</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>15979511000000</v>
+        <v>14218564000000</v>
       </c>
       <c r="L54" t="n">
-        <v>15609658000000</v>
+        <v>14783546000000</v>
       </c>
       <c r="M54" t="n">
-        <v>14617266000000</v>
+        <v>15851926000000</v>
       </c>
       <c r="N54" t="inlineStr"/>
-      <c r="O54" t="n">
-        <v>14218564000000</v>
-      </c>
-      <c r="P54" t="n">
-        <v>14783546000000</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>15851926000000</v>
-      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2244,49 +2102,41 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5673545000000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>5669264000000</v>
-      </c>
+        <v>10334206000000</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="n">
-        <v>4836262000000</v>
+        <v>16532694000000</v>
       </c>
       <c r="E55" t="n">
-        <v>5841512000000</v>
+        <v>14754618000000</v>
       </c>
       <c r="F55" t="n">
-        <v>10334206000000</v>
-      </c>
-      <c r="G55" t="inlineStr"/>
+        <v>13762492000000</v>
+      </c>
+      <c r="G55" t="n">
+        <v>11930572000000</v>
+      </c>
       <c r="H55" t="n">
-        <v>16532694000000</v>
+        <v>11645145000000</v>
       </c>
       <c r="I55" t="n">
-        <v>14754618000000</v>
-      </c>
-      <c r="J55" t="n">
-        <v>13762492000000</v>
-      </c>
+        <v>11119383000000</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>11930572000000</v>
+        <v>10646522000000</v>
       </c>
       <c r="L55" t="n">
-        <v>11645145000000</v>
+        <v>10369358000000</v>
       </c>
       <c r="M55" t="n">
-        <v>11119383000000</v>
+        <v>10654326000000</v>
       </c>
       <c r="N55" t="inlineStr"/>
-      <c r="O55" t="n">
-        <v>10646522000000</v>
-      </c>
-      <c r="P55" t="n">
-        <v>10369358000000</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>10654326000000</v>
-      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2295,51 +2145,43 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>3161341000000</v>
+        <v>3082235000000</v>
       </c>
       <c r="C56" t="n">
-        <v>3151544000000</v>
+        <v>18535793000000</v>
       </c>
       <c r="D56" t="n">
-        <v>3396379000000</v>
+        <v>2181347000000</v>
       </c>
       <c r="E56" t="n">
-        <v>3513008000000</v>
+        <v>2116167000000</v>
       </c>
       <c r="F56" t="n">
-        <v>3082235000000</v>
+        <v>2697042000000</v>
       </c>
       <c r="G56" t="n">
-        <v>18535793000000</v>
+        <v>1981642000000</v>
       </c>
       <c r="H56" t="n">
-        <v>2181347000000</v>
+        <v>1848479000000</v>
       </c>
       <c r="I56" t="n">
-        <v>2116167000000</v>
-      </c>
-      <c r="J56" t="n">
-        <v>2697042000000</v>
-      </c>
+        <v>1380780000000</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>1981642000000</v>
+        <v>1513406000000</v>
       </c>
       <c r="L56" t="n">
-        <v>1848479000000</v>
+        <v>2228929000000</v>
       </c>
       <c r="M56" t="n">
-        <v>1380780000000</v>
+        <v>3023526000000</v>
       </c>
       <c r="N56" t="inlineStr"/>
-      <c r="O56" t="n">
-        <v>1513406000000</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2228929000000</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>3023526000000</v>
-      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2348,13 +2190,13 @@
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="C57" t="n">
+        <v>1787212000000</v>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>1787212000000</v>
-      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2373,51 +2215,43 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>3885485000000</v>
+        <v>720067000000</v>
       </c>
       <c r="C58" t="n">
-        <v>3805399000000</v>
+        <v>962945000000</v>
       </c>
       <c r="D58" t="n">
-        <v>3872397000000</v>
+        <v>2049939000000</v>
       </c>
       <c r="E58" t="n">
-        <v>4113762000000</v>
+        <v>2353250000000</v>
       </c>
       <c r="F58" t="n">
-        <v>720067000000</v>
+        <v>2304963000000</v>
       </c>
       <c r="G58" t="n">
-        <v>962945000000</v>
+        <v>2267297000000</v>
       </c>
       <c r="H58" t="n">
-        <v>2049939000000</v>
+        <v>2316034000000</v>
       </c>
       <c r="I58" t="n">
-        <v>2353250000000</v>
-      </c>
-      <c r="J58" t="n">
-        <v>2304963000000</v>
-      </c>
+        <v>2317103000000</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>2267297000000</v>
+        <v>2258636000000</v>
       </c>
       <c r="L58" t="n">
-        <v>2316034000000</v>
+        <v>2385259000000</v>
       </c>
       <c r="M58" t="n">
-        <v>2317103000000</v>
+        <v>2374074000000</v>
       </c>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="n">
-        <v>2258636000000</v>
-      </c>
-      <c r="P58" t="n">
-        <v>2385259000000</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>2374074000000</v>
-      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2633,51 +2467,43 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>70793796000000</v>
+        <v>74334732000000</v>
       </c>
       <c r="C68" t="n">
-        <v>80394022000000</v>
+        <v>89601240000000</v>
       </c>
       <c r="D68" t="n">
-        <v>70458265000000</v>
+        <v>81184733000000</v>
       </c>
       <c r="E68" t="n">
-        <v>71386396000000</v>
+        <v>83969973000000</v>
       </c>
       <c r="F68" t="n">
-        <v>74334732000000</v>
+        <v>81102275000000</v>
       </c>
       <c r="G68" t="n">
-        <v>89601240000000</v>
+        <v>73784029000000</v>
       </c>
       <c r="H68" t="n">
-        <v>81184733000000</v>
+        <v>73896960000000</v>
       </c>
       <c r="I68" t="n">
-        <v>83969973000000</v>
-      </c>
-      <c r="J68" t="n">
-        <v>81102275000000</v>
-      </c>
+        <v>75468908000000</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>73784029000000</v>
+        <v>89847242000000</v>
       </c>
       <c r="L68" t="n">
-        <v>73896960000000</v>
+        <v>82932273000000</v>
       </c>
       <c r="M68" t="n">
-        <v>75468908000000</v>
+        <v>84616076000000</v>
       </c>
       <c r="N68" t="inlineStr"/>
-      <c r="O68" t="n">
-        <v>89847242000000</v>
-      </c>
-      <c r="P68" t="n">
-        <v>82932273000000</v>
-      </c>
-      <c r="Q68" t="n">
-        <v>84616076000000</v>
-      </c>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2690,16 +2516,16 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr"/>
-      <c r="H69" t="inlineStr"/>
+      <c r="G69" t="n">
+        <v>1778000000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>186860000000</v>
+      </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>1778000000</v>
-      </c>
-      <c r="L69" t="n">
-        <v>186860000000</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -2920,51 +2746,43 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>2857596000000</v>
+        <v>829226000000</v>
       </c>
       <c r="C79" t="n">
-        <v>12414097000000</v>
+        <v>9027173000000</v>
       </c>
       <c r="D79" t="n">
-        <v>1827620000000</v>
+        <v>827843000000</v>
       </c>
       <c r="E79" t="n">
-        <v>828805000000</v>
+        <v>6818830000000</v>
       </c>
       <c r="F79" t="n">
-        <v>829226000000</v>
+        <v>3295839000000</v>
       </c>
       <c r="G79" t="n">
-        <v>9027173000000</v>
+        <v>609295000000</v>
       </c>
       <c r="H79" t="n">
-        <v>827843000000</v>
+        <v>4402176000000</v>
       </c>
       <c r="I79" t="n">
-        <v>6818830000000</v>
-      </c>
-      <c r="J79" t="n">
-        <v>3295839000000</v>
-      </c>
+        <v>2515031000000</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>609295000000</v>
+        <v>8517244000000</v>
       </c>
       <c r="L79" t="n">
-        <v>4402176000000</v>
+        <v>2518394000000</v>
       </c>
       <c r="M79" t="n">
-        <v>2515031000000</v>
+        <v>4019683000000</v>
       </c>
       <c r="N79" t="inlineStr"/>
-      <c r="O79" t="n">
-        <v>8517244000000</v>
-      </c>
-      <c r="P79" t="n">
-        <v>2518394000000</v>
-      </c>
-      <c r="Q79" t="n">
-        <v>4019683000000</v>
-      </c>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2973,51 +2791,43 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>2857596000000</v>
+        <v>829226000000</v>
       </c>
       <c r="C80" t="n">
-        <v>11580289000000</v>
+        <v>9027173000000</v>
       </c>
       <c r="D80" t="n">
-        <v>1827620000000</v>
+        <v>827843000000</v>
       </c>
       <c r="E80" t="n">
-        <v>828805000000</v>
+        <v>6818830000000</v>
       </c>
       <c r="F80" t="n">
-        <v>829226000000</v>
+        <v>2840639000000</v>
       </c>
       <c r="G80" t="n">
-        <v>9027173000000</v>
+        <v>472675000000</v>
       </c>
       <c r="H80" t="n">
-        <v>827843000000</v>
+        <v>4265076000000</v>
       </c>
       <c r="I80" t="n">
-        <v>6818830000000</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2840639000000</v>
-      </c>
+        <v>2515031000000</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>472675000000</v>
+        <v>8517244000000</v>
       </c>
       <c r="L80" t="n">
-        <v>4265076000000</v>
+        <v>2518394000000</v>
       </c>
       <c r="M80" t="n">
-        <v>2515031000000</v>
+        <v>4019683000000</v>
       </c>
       <c r="N80" t="inlineStr"/>
-      <c r="O80" t="n">
-        <v>8517244000000</v>
-      </c>
-      <c r="P80" t="n">
-        <v>2518394000000</v>
-      </c>
-      <c r="Q80" t="n">
-        <v>4019683000000</v>
-      </c>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3026,24 +2836,22 @@
         </is>
       </c>
       <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
-        <v>833808000000</v>
-      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
+      <c r="F81" t="n">
+        <v>455200000000</v>
+      </c>
+      <c r="G81" t="n">
+        <v>136620000000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>137100000000</v>
+      </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>455200000000</v>
-      </c>
-      <c r="K81" t="n">
-        <v>136620000000</v>
-      </c>
-      <c r="L81" t="n">
-        <v>137100000000</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="inlineStr"/>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -3103,51 +2911,43 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>58342752000000</v>
+        <v>64603825000000</v>
       </c>
       <c r="C84" t="n">
-        <v>59095308000000</v>
+        <v>72084752000000</v>
       </c>
       <c r="D84" t="n">
-        <v>60547020000000</v>
+        <v>71362427000000</v>
       </c>
       <c r="E84" t="n">
-        <v>62065424000000</v>
+        <v>68903547000000</v>
       </c>
       <c r="F84" t="n">
-        <v>64603825000000</v>
+        <v>69461479000000</v>
       </c>
       <c r="G84" t="n">
-        <v>72084752000000</v>
+        <v>64520093000000</v>
       </c>
       <c r="H84" t="n">
-        <v>71362427000000</v>
+        <v>59648599000000</v>
       </c>
       <c r="I84" t="n">
-        <v>68903547000000</v>
-      </c>
-      <c r="J84" t="n">
-        <v>69461479000000</v>
-      </c>
+        <v>63202523000000</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>64520093000000</v>
+        <v>71350329000000</v>
       </c>
       <c r="L84" t="n">
-        <v>59648599000000</v>
+        <v>70212237000000</v>
       </c>
       <c r="M84" t="n">
-        <v>63202523000000</v>
+        <v>70380805000000</v>
       </c>
       <c r="N84" t="inlineStr"/>
-      <c r="O84" t="n">
-        <v>71350329000000</v>
-      </c>
-      <c r="P84" t="n">
-        <v>70212237000000</v>
-      </c>
-      <c r="Q84" t="n">
-        <v>70380805000000</v>
-      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3367,19 +3167,19 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
+      <c r="G94" t="n">
+        <v>39179000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>966000000</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1307000000</v>
+      </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>39179000000</v>
-      </c>
-      <c r="L94" t="n">
-        <v>966000000</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1307000000</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr"/>
       <c r="P94" t="inlineStr"/>
@@ -3461,51 +3261,43 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>66511262000000</v>
+        <v>70051976000000</v>
       </c>
       <c r="C98" t="n">
-        <v>76087350000000</v>
+        <v>85338420000000</v>
       </c>
       <c r="D98" t="n">
-        <v>66139614000000</v>
+        <v>76900294000000</v>
       </c>
       <c r="E98" t="n">
-        <v>67061368000000</v>
+        <v>79606596000000</v>
       </c>
       <c r="F98" t="n">
-        <v>70051976000000</v>
+        <v>76675030000000</v>
       </c>
       <c r="G98" t="n">
-        <v>85338420000000</v>
+        <v>69519809000000</v>
       </c>
       <c r="H98" t="n">
-        <v>76900294000000</v>
+        <v>69612362000000</v>
       </c>
       <c r="I98" t="n">
-        <v>79606596000000</v>
-      </c>
-      <c r="J98" t="n">
-        <v>76675030000000</v>
-      </c>
+        <v>71189454000000</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>69519809000000</v>
+        <v>84083014000000</v>
       </c>
       <c r="L98" t="n">
-        <v>69612362000000</v>
+        <v>77163637000000</v>
       </c>
       <c r="M98" t="n">
-        <v>71189454000000</v>
+        <v>78841430000000</v>
       </c>
       <c r="N98" t="inlineStr"/>
-      <c r="O98" t="n">
-        <v>84083014000000</v>
-      </c>
-      <c r="P98" t="n">
-        <v>77163637000000</v>
-      </c>
-      <c r="Q98" t="n">
-        <v>78841430000000</v>
-      </c>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3522,13 +3314,13 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>5571911000000</v>
+      </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
-      <c r="O99" t="n">
-        <v>5571911000000</v>
-      </c>
+      <c r="O99" t="inlineStr"/>
       <c r="P99" t="inlineStr"/>
       <c r="Q99" t="inlineStr"/>
     </row>
@@ -3562,28 +3354,20 @@
       <c r="I100" t="n">
         <v>4101555000000</v>
       </c>
-      <c r="J100" t="n">
-        <v>4101555000000</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>4101555000000</v>
+        <v>5601555000000</v>
       </c>
       <c r="L100" t="n">
-        <v>4101555000000</v>
+        <v>5601555000000</v>
       </c>
       <c r="M100" t="n">
-        <v>4101555000000</v>
+        <v>5601555000000</v>
       </c>
       <c r="N100" t="inlineStr"/>
-      <c r="O100" t="n">
-        <v>5601555000000</v>
-      </c>
-      <c r="P100" t="n">
-        <v>5601555000000</v>
-      </c>
-      <c r="Q100" t="n">
-        <v>5601555000000</v>
-      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3707,9 +3491,7 @@
       <c r="I105" t="n">
         <v>-29644000000</v>
       </c>
-      <c r="J105" t="n">
-        <v>-29644000000</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>-29644000000</v>
       </c>
@@ -3720,15 +3502,9 @@
         <v>-29644000000</v>
       </c>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="n">
-        <v>-29644000000</v>
-      </c>
-      <c r="P105" t="n">
-        <v>-29644000000</v>
-      </c>
-      <c r="Q105" t="n">
-        <v>-29644000000</v>
-      </c>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3875,9 +3651,7 @@
       <c r="I111" t="n">
         <v>157516000000</v>
       </c>
-      <c r="J111" t="n">
-        <v>157516000000</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>157516000000</v>
       </c>
@@ -3888,15 +3662,9 @@
         <v>157516000000</v>
       </c>
       <c r="N111" t="inlineStr"/>
-      <c r="O111" t="n">
-        <v>157516000000</v>
-      </c>
-      <c r="P111" t="n">
-        <v>157516000000</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>157516000000</v>
-      </c>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
